--- a/public/admin/format/export/invoice.xlsx
+++ b/public/admin/format/export/invoice.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="invoiceLines">Invoice!$F$5:$F$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Invoice</t>
   </si>
@@ -40,24 +40,15 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Subtotal.:</t>
-  </si>
-  <si>
     <t>Shipping:</t>
   </si>
   <si>
     <t>Discount:</t>
   </si>
   <si>
-    <t>Total.:</t>
-  </si>
-  <si>
     <t>Received:</t>
   </si>
   <si>
-    <t>Balance.:</t>
-  </si>
-  <si>
     <t>N.o</t>
   </si>
   <si>
@@ -74,6 +65,18 @@
   </si>
   <si>
     <t>Order info</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Balance:</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,6 +136,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,15 +211,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,25 +258,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +673,10 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" t="str">
         <f t="shared" ref="G1:H4" si="0">CHAR(32)</f>
@@ -686,14 +688,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -730,13 +732,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -759,20 +761,17 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20">
-        <f>SUM(F5:F5)</f>
+      <c r="D6" s="24"/>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16">
         <v>0</v>
       </c>
       <c r="G6" t="str">
@@ -788,11 +787,11 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -800,44 +799,41 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20">
+      <c r="E8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
         <v>0</v>
-      </c>
-      <c r="G8" t="str">
-        <f>CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
-        <f>CHAR(32)</f>
-        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21">
-        <f>SUM(F6:F8)</f>
+      <c r="E9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16">
         <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f>CHAR(32)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H9" t="str">
+        <f>CHAR(32)</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20">
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="25">
+        <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
     </row>
@@ -845,26 +841,26 @@
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21">
-        <f>SUM(F9:F10)</f>
+      <c r="E11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" ref="G11:H16" si="1">CHAR(32)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G12:H17" si="1">CHAR(32)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
@@ -902,7 +898,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
@@ -912,15 +908,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
+    <row r="17" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
